--- a/backend/telemetryNameMap.xlsx
+++ b/backend/telemetryNameMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derek/Sites/metaspan/metaspan.io/decentralised-nodes-api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derek/Sites/metaspan/metaspan.io/dn-dashboard/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE0DE7-04FE-A049-8685-070768888FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7C78D2-F688-B640-B7AC-640A0C091421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-6020" windowWidth="38400" windowHeight="21100" xr2:uid="{9071C7F0-BCB4-7045-9339-F6E9111252A8}"/>
+    <workbookView xWindow="-38400" yWindow="-6020" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{9071C7F0-BCB4-7045-9339-F6E9111252A8}"/>
   </bookViews>
   <sheets>
     <sheet name="kusama" sheetId="2" r:id="rId1"/>
@@ -3979,9 +3979,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1928"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10575,9 +10575,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1370"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D369"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
